--- a/Code/Results/Cases/Case_0_88/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_88/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.401455523829565</v>
+        <v>10.30359681186211</v>
       </c>
       <c r="D2">
-        <v>4.21192682038756</v>
+        <v>4.307170786526501</v>
       </c>
       <c r="E2">
-        <v>19.24629105164579</v>
+        <v>13.75688765628082</v>
       </c>
       <c r="F2">
-        <v>15.23573647088449</v>
+        <v>20.81465131686366</v>
       </c>
       <c r="G2">
-        <v>20.52199978706235</v>
+        <v>22.81094877805262</v>
       </c>
       <c r="H2">
-        <v>5.20915319896608</v>
+        <v>12.77604502816191</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>14.37868279669752</v>
+        <v>9.942087910354596</v>
       </c>
       <c r="M2">
-        <v>100.2455370203193</v>
+        <v>59.00858740866833</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>10.97461452326355</v>
+        <v>18.65194293546658</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.422331902799578</v>
+        <v>10.52589910774381</v>
       </c>
       <c r="D3">
-        <v>3.899558782680088</v>
+        <v>4.282789355988567</v>
       </c>
       <c r="E3">
-        <v>17.47956180246287</v>
+        <v>13.57444447906548</v>
       </c>
       <c r="F3">
-        <v>13.6470695746862</v>
+        <v>21.05762261584053</v>
       </c>
       <c r="G3">
-        <v>18.01684163162651</v>
+        <v>23.21076216917748</v>
       </c>
       <c r="H3">
-        <v>5.291531882860592</v>
+        <v>12.9247932795092</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>13.19433212877238</v>
+        <v>9.781369041244401</v>
       </c>
       <c r="M3">
-        <v>92.64267139584832</v>
+        <v>55.53906150769269</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>9.602467653001082</v>
+        <v>18.92538273464109</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.892692324005403</v>
+        <v>10.66938621641625</v>
       </c>
       <c r="D4">
-        <v>3.703066322190286</v>
+        <v>4.268324493625647</v>
       </c>
       <c r="E4">
-        <v>16.40603453069874</v>
+        <v>13.46955324654705</v>
       </c>
       <c r="F4">
-        <v>12.7379891001403</v>
+        <v>21.22088918171962</v>
       </c>
       <c r="G4">
-        <v>16.59409943203236</v>
+        <v>23.48032654777419</v>
       </c>
       <c r="H4">
-        <v>5.392402425985352</v>
+        <v>13.02087133413101</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.46042865596797</v>
+        <v>9.685213236214285</v>
       </c>
       <c r="M4">
-        <v>87.85841486781156</v>
+        <v>53.28623388914487</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>8.804282227626846</v>
+        <v>19.10366012448817</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.694743185841197</v>
+        <v>10.72959278598603</v>
       </c>
       <c r="D5">
-        <v>3.621531441181513</v>
+        <v>4.262561409186408</v>
       </c>
       <c r="E5">
-        <v>15.96889387219748</v>
+        <v>13.42863555048814</v>
       </c>
       <c r="F5">
-        <v>12.53113820596549</v>
+        <v>21.29088390885052</v>
       </c>
       <c r="G5">
-        <v>16.04229769964577</v>
+        <v>23.59602688376929</v>
       </c>
       <c r="H5">
-        <v>5.443742313341084</v>
+        <v>13.06121086225098</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.15824124776091</v>
+        <v>9.64670958811625</v>
       </c>
       <c r="M5">
-        <v>85.87303405468253</v>
+        <v>52.33756258268932</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>8.684840023038397</v>
+        <v>19.17888308190894</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.662963966375477</v>
+        <v>10.7396941486331</v>
       </c>
       <c r="D6">
-        <v>3.607897388077808</v>
+        <v>4.261612520096079</v>
       </c>
       <c r="E6">
-        <v>15.89626607371581</v>
+        <v>13.42195239562019</v>
       </c>
       <c r="F6">
-        <v>12.49819301071607</v>
+        <v>21.302713342252</v>
       </c>
       <c r="G6">
-        <v>15.95235428524687</v>
+        <v>23.61558643264739</v>
       </c>
       <c r="H6">
-        <v>5.45282267752197</v>
+        <v>13.06798071634059</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.10783966906914</v>
+        <v>9.640358508111968</v>
       </c>
       <c r="M6">
-        <v>85.54104009335914</v>
+        <v>52.17819349555187</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>8.677590774157343</v>
+        <v>19.19152816663224</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.889949923340231</v>
+        <v>10.67019119023893</v>
       </c>
       <c r="D7">
-        <v>3.70197295685268</v>
+        <v>4.268246232625544</v>
       </c>
       <c r="E7">
-        <v>16.40014058884497</v>
+        <v>13.46899398040402</v>
       </c>
       <c r="F7">
-        <v>12.73510447556111</v>
+        <v>21.22181923842077</v>
       </c>
       <c r="G7">
-        <v>16.58654482177913</v>
+        <v>23.48186349582622</v>
       </c>
       <c r="H7">
-        <v>5.393056265938681</v>
+        <v>13.02141056947589</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.4563675061508</v>
+        <v>9.684691147216357</v>
       </c>
       <c r="M7">
-        <v>87.83179166934163</v>
+        <v>53.27356348455946</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>8.799993202443632</v>
+        <v>19.10466423588442</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.048672807283629</v>
+        <v>10.37878004377525</v>
       </c>
       <c r="D8">
-        <v>4.105002368948741</v>
+        <v>4.298661800000899</v>
       </c>
       <c r="E8">
-        <v>18.63305027615201</v>
+        <v>13.69252293202256</v>
       </c>
       <c r="F8">
-        <v>14.67581562405433</v>
+        <v>20.89545728689465</v>
       </c>
       <c r="G8">
-        <v>19.63318083172881</v>
+        <v>22.94368157619156</v>
       </c>
       <c r="H8">
-        <v>5.225541475587385</v>
+        <v>12.82634437854968</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>13.9707270064382</v>
+        <v>9.886175094579288</v>
       </c>
       <c r="M8">
-        <v>97.64364573750073</v>
+        <v>57.83781433370294</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>10.49154375857512</v>
+        <v>18.74404636696025</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.953023013275489</v>
+        <v>9.8640365922041</v>
       </c>
       <c r="D9">
-        <v>4.876726756868741</v>
+        <v>4.362124518167467</v>
       </c>
       <c r="E9">
-        <v>23.26781212651535</v>
+        <v>14.18576571462649</v>
       </c>
       <c r="F9">
-        <v>19.03843903254175</v>
+        <v>20.37082347298266</v>
       </c>
       <c r="G9">
-        <v>26.66969016501379</v>
+        <v>22.08897367757612</v>
       </c>
       <c r="H9">
-        <v>6.392401125479292</v>
+        <v>12.48178389355332</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>16.98064152500199</v>
+        <v>10.29932640819512</v>
       </c>
       <c r="M9">
-        <v>116.3907433040331</v>
+        <v>65.81128797368066</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.24935764518304</v>
+        <v>18.12107166992012</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.72147731664275</v>
+        <v>9.522397358691528</v>
       </c>
       <c r="D10">
-        <v>5.477771398970186</v>
+        <v>4.41082062132203</v>
       </c>
       <c r="E10">
-        <v>27.23440459340966</v>
+        <v>14.57917693383664</v>
       </c>
       <c r="F10">
-        <v>22.84883727716441</v>
+        <v>20.06085536484986</v>
       </c>
       <c r="G10">
-        <v>32.96183329742308</v>
+        <v>21.59726983427172</v>
       </c>
       <c r="H10">
-        <v>7.92133874018236</v>
+        <v>12.25222829778938</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>19.44162402010983</v>
+        <v>10.61121695556616</v>
       </c>
       <c r="M10">
-        <v>130.8838487745452</v>
+        <v>71.07097752607137</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.53850290484269</v>
+        <v>17.71736250994353</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>13.27389734873909</v>
+        <v>9.375436765107546</v>
       </c>
       <c r="D11">
-        <v>5.782556410775571</v>
+        <v>4.433368594600684</v>
       </c>
       <c r="E11">
-        <v>29.37320718846118</v>
+        <v>14.76432283398678</v>
       </c>
       <c r="F11">
-        <v>24.87313810379784</v>
+        <v>19.937392782542</v>
       </c>
       <c r="G11">
-        <v>36.34783715707563</v>
+        <v>21.4063651939672</v>
       </c>
       <c r="H11">
-        <v>8.751837182193743</v>
+        <v>12.15303022533389</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>20.73307768184442</v>
+        <v>10.75437480376046</v>
       </c>
       <c r="M11">
-        <v>138.1639445220833</v>
+        <v>73.33400213481909</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.29544481100534</v>
+        <v>17.54606870019764</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>13.93726312861415</v>
+        <v>9.321054205320618</v>
       </c>
       <c r="D12">
-        <v>5.907498540389488</v>
+        <v>4.441959253858561</v>
       </c>
       <c r="E12">
-        <v>30.27536128538586</v>
+        <v>14.83527265335666</v>
       </c>
       <c r="F12">
-        <v>25.71497247260476</v>
+        <v>19.8932627330675</v>
       </c>
       <c r="G12">
-        <v>37.76460588538405</v>
+        <v>21.33906390765895</v>
       </c>
       <c r="H12">
-        <v>9.100396845813215</v>
+        <v>12.11622871456059</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>21.27137004895598</v>
+        <v>10.80872543218088</v>
       </c>
       <c r="M12">
-        <v>141.1298187364521</v>
+        <v>74.17235701763013</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.02877507802401</v>
+        <v>17.483039511575</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>13.79004801262604</v>
+        <v>9.332709143371137</v>
       </c>
       <c r="D13">
-        <v>5.880017575464828</v>
+        <v>4.440106852793904</v>
       </c>
       <c r="E13">
-        <v>30.07565997089521</v>
+        <v>14.81995581307804</v>
       </c>
       <c r="F13">
-        <v>25.52933596912009</v>
+        <v>19.90264867571172</v>
       </c>
       <c r="G13">
-        <v>37.45174609263388</v>
+        <v>21.35333200995866</v>
       </c>
       <c r="H13">
-        <v>9.023379213723398</v>
+        <v>12.12412047677047</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>21.15252329817797</v>
+        <v>10.79701450619855</v>
       </c>
       <c r="M13">
-        <v>140.4785061890842</v>
+        <v>73.99262884599513</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19.86691578243571</v>
+        <v>17.49653132535052</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>13.32662583452345</v>
+        <v>9.370936935259479</v>
       </c>
       <c r="D14">
-        <v>5.792594372098591</v>
+        <v>4.434074333224206</v>
       </c>
       <c r="E14">
-        <v>29.44513932064688</v>
+        <v>14.7701433867169</v>
       </c>
       <c r="F14">
-        <v>24.94055526182285</v>
+        <v>19.93370903694078</v>
       </c>
       <c r="G14">
-        <v>36.46110841712927</v>
+        <v>21.40072665130727</v>
       </c>
       <c r="H14">
-        <v>8.779684171350606</v>
+        <v>12.14998719291783</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>20.77613152537131</v>
+        <v>10.75884370305651</v>
       </c>
       <c r="M14">
-        <v>138.4026587993105</v>
+        <v>73.40334663916931</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>19.35410982928529</v>
+        <v>17.54084609856618</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>13.05422703915521</v>
+        <v>9.394519405696936</v>
       </c>
       <c r="D15">
-        <v>5.740530435857448</v>
+        <v>4.430385904471685</v>
       </c>
       <c r="E15">
-        <v>29.07308575332839</v>
+        <v>14.73973963448623</v>
       </c>
       <c r="F15">
-        <v>24.5913355996709</v>
+        <v>19.95307894144949</v>
       </c>
       <c r="G15">
-        <v>35.87471882249589</v>
+        <v>21.43041546395303</v>
       </c>
       <c r="H15">
-        <v>8.635565062483703</v>
+        <v>12.16593096036978</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>20.55318803251467</v>
+        <v>10.73547993382674</v>
       </c>
       <c r="M15">
-        <v>137.1637334331866</v>
+        <v>73.03997306636009</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>19.05033955793387</v>
+        <v>17.56823111959415</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>11.62805317236395</v>
+        <v>9.532176022028484</v>
       </c>
       <c r="D16">
-        <v>5.458805447759033</v>
+        <v>4.409354621593488</v>
       </c>
       <c r="E16">
-        <v>27.10419231738353</v>
+        <v>14.56719734291303</v>
       </c>
       <c r="F16">
-        <v>22.72454835754503</v>
+        <v>20.0692854326204</v>
       </c>
       <c r="G16">
-        <v>32.75489075451102</v>
+        <v>21.61042892143024</v>
       </c>
       <c r="H16">
-        <v>7.870718258785743</v>
+        <v>12.25881723419829</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>19.36225718804661</v>
+        <v>10.60188316248972</v>
       </c>
       <c r="M16">
-        <v>130.4289787024473</v>
+        <v>70.92047767776496</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.43089140973275</v>
+        <v>17.72881056556203</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.84320466574598</v>
+        <v>9.618824239864386</v>
       </c>
       <c r="D17">
-        <v>5.296274998027455</v>
+        <v>4.396550645699298</v>
       </c>
       <c r="E17">
-        <v>26.00199708113001</v>
+        <v>14.46289602987281</v>
       </c>
       <c r="F17">
-        <v>21.66902486369346</v>
+        <v>20.1451379080697</v>
       </c>
       <c r="G17">
-        <v>31.00191887019517</v>
+        <v>21.7294502739184</v>
       </c>
       <c r="H17">
-        <v>7.442684885060164</v>
+        <v>12.31714641667121</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>18.68679523978333</v>
+        <v>10.52022118598437</v>
       </c>
       <c r="M17">
-        <v>126.5233473308301</v>
+        <v>69.58705286841742</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.51804461232072</v>
+        <v>17.83052630843142</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.41652378069654</v>
+        <v>9.669454069882537</v>
       </c>
       <c r="D18">
-        <v>5.205319852282378</v>
+        <v>4.389223676799022</v>
       </c>
       <c r="E18">
-        <v>25.3957852966549</v>
+        <v>14.40348948582163</v>
       </c>
       <c r="F18">
-        <v>21.08646462300055</v>
+        <v>20.1904113909495</v>
       </c>
       <c r="G18">
-        <v>30.03791450192084</v>
+        <v>21.80097589710149</v>
       </c>
       <c r="H18">
-        <v>7.207947723913601</v>
+        <v>12.35118719426417</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>18.31239840882141</v>
+        <v>10.47337410086074</v>
       </c>
       <c r="M18">
-        <v>124.3322907152534</v>
+        <v>68.80789646954781</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.01495088213043</v>
+        <v>17.89018967161606</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.27573843261256</v>
+        <v>9.686731003063231</v>
       </c>
       <c r="D19">
-        <v>5.174872340549505</v>
+        <v>4.386749482389635</v>
       </c>
       <c r="E19">
-        <v>25.19453736665099</v>
+        <v>14.3834774069147</v>
       </c>
       <c r="F19">
-        <v>20.89285989407113</v>
+        <v>20.20601976754383</v>
       </c>
       <c r="G19">
-        <v>29.71810357879361</v>
+        <v>21.82571180430884</v>
       </c>
       <c r="H19">
-        <v>7.130187274283566</v>
+        <v>12.36279689340284</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>18.18763663928977</v>
+        <v>10.45753492966345</v>
       </c>
       <c r="M19">
-        <v>123.5980494862853</v>
+        <v>68.54199038493026</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.8478557635385</v>
+        <v>17.91058800755552</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.92404656232013</v>
+        <v>9.609518053183765</v>
       </c>
       <c r="D20">
-        <v>5.313293008946594</v>
+        <v>4.397909799796875</v>
       </c>
       <c r="E20">
-        <v>26.11626205676058</v>
+        <v>14.47393891715011</v>
       </c>
       <c r="F20">
-        <v>21.77869890482323</v>
+        <v>20.13689230085498</v>
       </c>
       <c r="G20">
-        <v>31.18368453065015</v>
+        <v>21.71646076983648</v>
       </c>
       <c r="H20">
-        <v>7.486999932516233</v>
+        <v>12.31088624421602</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>18.75713111164324</v>
+        <v>10.52890186541741</v>
       </c>
       <c r="M20">
-        <v>126.9328939869267</v>
+        <v>69.73026125878597</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.61281204960959</v>
+        <v>17.81957810896908</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>13.4602305841494</v>
+        <v>9.359673631782698</v>
       </c>
       <c r="D21">
-        <v>5.817944329305506</v>
+        <v>4.435844850011139</v>
       </c>
       <c r="E21">
-        <v>29.62722298667419</v>
+        <v>14.78475212743938</v>
       </c>
       <c r="F21">
-        <v>25.11098896489892</v>
+        <v>19.92451387335156</v>
       </c>
       <c r="G21">
-        <v>36.747609414371</v>
+        <v>21.38666801717476</v>
       </c>
       <c r="H21">
-        <v>8.850134960247782</v>
+        <v>12.1423687222238</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>20.88500976628353</v>
+        <v>10.7700519359228</v>
       </c>
       <c r="M21">
-        <v>139.0051811264128</v>
+        <v>73.57693758674036</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.50246536645566</v>
+        <v>17.52777945115291</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>15.61979673547622</v>
+        <v>9.203807678618242</v>
       </c>
       <c r="D22">
-        <v>6.212628963734297</v>
+        <v>4.460939910398037</v>
       </c>
       <c r="E22">
-        <v>32.54103259719631</v>
+        <v>14.99275448598344</v>
       </c>
       <c r="F22">
-        <v>27.788875402551</v>
+        <v>19.80104645619437</v>
       </c>
       <c r="G22">
-        <v>41.27728865697098</v>
+        <v>21.20034943867814</v>
       </c>
       <c r="H22">
-        <v>9.966686325394329</v>
+        <v>12.03668376305938</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>22.60821843320631</v>
+        <v>10.92845391600188</v>
       </c>
       <c r="M22">
-        <v>148.3179578154354</v>
+        <v>75.98256051342474</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.84340224795171</v>
+        <v>17.34780474210815</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>14.39484618970148</v>
+        <v>9.28629789745942</v>
       </c>
       <c r="D23">
-        <v>5.992066036686635</v>
+        <v>4.447520077266306</v>
       </c>
       <c r="E23">
-        <v>30.89441454512665</v>
+        <v>14.88131068040712</v>
       </c>
       <c r="F23">
-        <v>26.2876792234868</v>
+        <v>19.86550668573786</v>
       </c>
       <c r="G23">
-        <v>38.73140233284345</v>
+        <v>21.2970240537099</v>
       </c>
       <c r="H23">
-        <v>9.338550747696871</v>
+        <v>12.09267872097469</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>21.63869973266202</v>
+        <v>10.84385282307847</v>
       </c>
       <c r="M23">
-        <v>143.1302604636154</v>
+        <v>74.7085349918659</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.52868677332457</v>
+        <v>17.44285787275052</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.88742336803593</v>
+        <v>9.61372284673692</v>
       </c>
       <c r="D24">
-        <v>5.305591703339439</v>
+        <v>4.397295219324128</v>
       </c>
       <c r="E24">
-        <v>26.06451981522293</v>
+        <v>14.46894468701533</v>
       </c>
       <c r="F24">
-        <v>21.72904153742583</v>
+        <v>20.14061496166634</v>
       </c>
       <c r="G24">
-        <v>31.10137515871</v>
+        <v>21.7223236939141</v>
       </c>
       <c r="H24">
-        <v>7.46693058155727</v>
+        <v>12.3137148911941</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>18.72529022869212</v>
+        <v>10.52497701083075</v>
       </c>
       <c r="M24">
-        <v>126.7475748396253</v>
+        <v>69.66555584703099</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.56990176927752</v>
+        <v>17.82452410142037</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.084398659694923</v>
+        <v>9.997030542525803</v>
       </c>
       <c r="D25">
-        <v>4.666628682923339</v>
+        <v>4.344573972859826</v>
       </c>
       <c r="E25">
-        <v>21.95688130565817</v>
+        <v>14.04669488391836</v>
       </c>
       <c r="F25">
-        <v>17.78232981335506</v>
+        <v>20.49987887521158</v>
       </c>
       <c r="G25">
-        <v>24.62150916235232</v>
+        <v>22.29731586684986</v>
       </c>
       <c r="H25">
-        <v>5.901117624026234</v>
+        <v>12.57088828868422</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>16.14552526794589</v>
+        <v>10.18590306111382</v>
       </c>
       <c r="M25">
-        <v>111.2966957034659</v>
+        <v>63.75929927669386</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.16789744023476</v>
+        <v>18.28032617716875</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_88/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_88/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.30359681186211</v>
+        <v>6.401455523829748</v>
       </c>
       <c r="D2">
-        <v>4.307170786526501</v>
+        <v>4.211926820387542</v>
       </c>
       <c r="E2">
-        <v>13.75688765628082</v>
+        <v>19.24629105164579</v>
       </c>
       <c r="F2">
-        <v>20.81465131686366</v>
+        <v>15.23573647088451</v>
       </c>
       <c r="G2">
-        <v>22.81094877805262</v>
+        <v>20.52199978706236</v>
       </c>
       <c r="H2">
-        <v>12.77604502816191</v>
+        <v>5.209153198966065</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.942087910354596</v>
+        <v>14.37868279669745</v>
       </c>
       <c r="M2">
-        <v>59.00858740866833</v>
+        <v>100.2455370203193</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.65194293546658</v>
+        <v>10.97461452326358</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>10.52589910774381</v>
+        <v>5.422331902799474</v>
       </c>
       <c r="D3">
-        <v>4.282789355988567</v>
+        <v>3.899558782680081</v>
       </c>
       <c r="E3">
-        <v>13.57444447906548</v>
+        <v>17.47956180246278</v>
       </c>
       <c r="F3">
-        <v>21.05762261584053</v>
+        <v>13.6470695746863</v>
       </c>
       <c r="G3">
-        <v>23.21076216917748</v>
+        <v>18.01684163162671</v>
       </c>
       <c r="H3">
-        <v>12.9247932795092</v>
+        <v>5.291531882860565</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.781369041244401</v>
+        <v>13.19433212877238</v>
       </c>
       <c r="M3">
-        <v>55.53906150769269</v>
+        <v>92.64267139584824</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.92538273464109</v>
+        <v>9.602467653001169</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>10.66938621641625</v>
+        <v>4.892692324005388</v>
       </c>
       <c r="D4">
-        <v>4.268324493625647</v>
+        <v>3.703066322190308</v>
       </c>
       <c r="E4">
-        <v>13.46955324654705</v>
+        <v>16.4060345306987</v>
       </c>
       <c r="F4">
-        <v>21.22088918171962</v>
+        <v>12.73798910014032</v>
       </c>
       <c r="G4">
-        <v>23.48032654777419</v>
+        <v>16.59409943203245</v>
       </c>
       <c r="H4">
-        <v>13.02087133413101</v>
+        <v>5.392402425985273</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.685213236214285</v>
+        <v>12.46042865596796</v>
       </c>
       <c r="M4">
-        <v>53.28623388914487</v>
+        <v>87.8584148678115</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>19.10366012448817</v>
+        <v>8.804282227626924</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>10.72959278598603</v>
+        <v>4.694743185841181</v>
       </c>
       <c r="D5">
-        <v>4.262561409186408</v>
+        <v>3.621531441181521</v>
       </c>
       <c r="E5">
-        <v>13.42863555048814</v>
+        <v>15.96889387219748</v>
       </c>
       <c r="F5">
-        <v>21.29088390885052</v>
+        <v>12.53113820596553</v>
       </c>
       <c r="G5">
-        <v>23.59602688376929</v>
+        <v>16.04229769964579</v>
       </c>
       <c r="H5">
-        <v>13.06121086225098</v>
+        <v>5.44374231334109</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.64670958811625</v>
+        <v>12.1582412477609</v>
       </c>
       <c r="M5">
-        <v>52.33756258268932</v>
+        <v>85.87303405468248</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>19.17888308190894</v>
+        <v>8.684840023038406</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10.7396941486331</v>
+        <v>4.662963966375423</v>
       </c>
       <c r="D6">
-        <v>4.261612520096079</v>
+        <v>3.607897388077817</v>
       </c>
       <c r="E6">
-        <v>13.42195239562019</v>
+        <v>15.89626607371584</v>
       </c>
       <c r="F6">
-        <v>21.302713342252</v>
+        <v>12.49819301071612</v>
       </c>
       <c r="G6">
-        <v>23.61558643264739</v>
+        <v>15.9523542852469</v>
       </c>
       <c r="H6">
-        <v>13.06798071634059</v>
+        <v>5.452822677521989</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.640358508111968</v>
+        <v>12.10783966906919</v>
       </c>
       <c r="M6">
-        <v>52.17819349555187</v>
+        <v>85.5410400933591</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19.19152816663224</v>
+        <v>8.677590774157386</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>10.67019119023893</v>
+        <v>4.889949923340154</v>
       </c>
       <c r="D7">
-        <v>4.268246232625544</v>
+        <v>3.701972956852625</v>
       </c>
       <c r="E7">
-        <v>13.46899398040402</v>
+        <v>16.40014058884497</v>
       </c>
       <c r="F7">
-        <v>21.22181923842077</v>
+        <v>12.73510447556107</v>
       </c>
       <c r="G7">
-        <v>23.48186349582622</v>
+        <v>16.58654482177915</v>
       </c>
       <c r="H7">
-        <v>13.02141056947589</v>
+        <v>5.393056265938649</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.684691147216357</v>
+        <v>12.45636750615082</v>
       </c>
       <c r="M7">
-        <v>53.27356348455946</v>
+        <v>87.83179166934167</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>19.10466423588442</v>
+        <v>8.799993202443687</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>10.37878004377525</v>
+        <v>6.048672807283789</v>
       </c>
       <c r="D8">
-        <v>4.298661800000899</v>
+        <v>4.105002368948664</v>
       </c>
       <c r="E8">
-        <v>13.69252293202256</v>
+        <v>18.63305027615209</v>
       </c>
       <c r="F8">
-        <v>20.89545728689465</v>
+        <v>14.67581562405446</v>
       </c>
       <c r="G8">
-        <v>22.94368157619156</v>
+        <v>19.63318083172895</v>
       </c>
       <c r="H8">
-        <v>12.82634437854968</v>
+        <v>5.225541475587336</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.886175094579288</v>
+        <v>13.97072700643824</v>
       </c>
       <c r="M8">
-        <v>57.83781433370294</v>
+        <v>97.64364573750093</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.74404636696025</v>
+        <v>10.4915437585752</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.8640365922041</v>
+        <v>8.953023013275599</v>
       </c>
       <c r="D9">
-        <v>4.362124518167467</v>
+        <v>4.876726756868654</v>
       </c>
       <c r="E9">
-        <v>14.18576571462649</v>
+        <v>23.2678121265154</v>
       </c>
       <c r="F9">
-        <v>20.37082347298266</v>
+        <v>19.03843903254177</v>
       </c>
       <c r="G9">
-        <v>22.08897367757612</v>
+        <v>26.66969016501372</v>
       </c>
       <c r="H9">
-        <v>12.48178389355332</v>
+        <v>6.392401125479349</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.29932640819512</v>
+        <v>16.98064152500202</v>
       </c>
       <c r="M9">
-        <v>65.81128797368066</v>
+        <v>116.390743304033</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.12107166992012</v>
+        <v>14.24935764518302</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.522397358691528</v>
+        <v>11.72147731664299</v>
       </c>
       <c r="D10">
-        <v>4.41082062132203</v>
+        <v>5.477771398970146</v>
       </c>
       <c r="E10">
-        <v>14.57917693383664</v>
+        <v>27.23440459340974</v>
       </c>
       <c r="F10">
-        <v>20.06085536484986</v>
+        <v>22.84883727716453</v>
       </c>
       <c r="G10">
-        <v>21.59726983427172</v>
+        <v>32.96183329742319</v>
       </c>
       <c r="H10">
-        <v>12.25222829778938</v>
+        <v>7.921338740182421</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.61121695556616</v>
+        <v>19.44162402010987</v>
       </c>
       <c r="M10">
-        <v>71.07097752607137</v>
+        <v>130.8838487745454</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.71736250994353</v>
+        <v>17.53850290484278</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.375436765107546</v>
+        <v>13.27389734873909</v>
       </c>
       <c r="D11">
-        <v>4.433368594600684</v>
+        <v>5.782556410775634</v>
       </c>
       <c r="E11">
-        <v>14.76432283398678</v>
+        <v>29.37320718846125</v>
       </c>
       <c r="F11">
-        <v>19.937392782542</v>
+        <v>24.87313810379817</v>
       </c>
       <c r="G11">
-        <v>21.4063651939672</v>
+        <v>36.34783715707627</v>
       </c>
       <c r="H11">
-        <v>12.15303022533389</v>
+        <v>8.751837182193945</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.75437480376046</v>
+        <v>20.73307768184446</v>
       </c>
       <c r="M11">
-        <v>73.33400213481909</v>
+        <v>138.1639445220834</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.54606870019764</v>
+        <v>19.29544481100569</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.321054205320618</v>
+        <v>13.93726312861427</v>
       </c>
       <c r="D12">
-        <v>4.441959253858561</v>
+        <v>5.907498540389513</v>
       </c>
       <c r="E12">
-        <v>14.83527265335666</v>
+        <v>30.27536128538594</v>
       </c>
       <c r="F12">
-        <v>19.8932627330675</v>
+        <v>25.71497247260495</v>
       </c>
       <c r="G12">
-        <v>21.33906390765895</v>
+        <v>37.76460588538425</v>
       </c>
       <c r="H12">
-        <v>12.11622871456059</v>
+        <v>9.100396845813322</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.80872543218088</v>
+        <v>21.27137004895604</v>
       </c>
       <c r="M12">
-        <v>74.17235701763013</v>
+        <v>141.1298187364523</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.483039511575</v>
+        <v>20.02877507802415</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.332709143371137</v>
+        <v>13.79004801262618</v>
       </c>
       <c r="D13">
-        <v>4.440106852793904</v>
+        <v>5.880017575464836</v>
       </c>
       <c r="E13">
-        <v>14.81995581307804</v>
+        <v>30.0756599708952</v>
       </c>
       <c r="F13">
-        <v>19.90264867571172</v>
+        <v>25.52933596912018</v>
       </c>
       <c r="G13">
-        <v>21.35333200995866</v>
+        <v>37.45174609263409</v>
       </c>
       <c r="H13">
-        <v>12.12412047677047</v>
+        <v>9.023379213723386</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.79701450619855</v>
+        <v>21.15252329817795</v>
       </c>
       <c r="M13">
-        <v>73.99262884599513</v>
+        <v>140.4785061890843</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.49653132535052</v>
+        <v>19.86691578243577</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.370936935259479</v>
+        <v>13.32662583452334</v>
       </c>
       <c r="D14">
-        <v>4.434074333224206</v>
+        <v>5.792594372098593</v>
       </c>
       <c r="E14">
-        <v>14.7701433867169</v>
+        <v>29.44513932064689</v>
       </c>
       <c r="F14">
-        <v>19.93370903694078</v>
+        <v>24.94055526182287</v>
       </c>
       <c r="G14">
-        <v>21.40072665130727</v>
+        <v>36.46110841712934</v>
       </c>
       <c r="H14">
-        <v>12.14998719291783</v>
+        <v>8.77968417135058</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.75884370305651</v>
+        <v>20.77613152537135</v>
       </c>
       <c r="M14">
-        <v>73.40334663916931</v>
+        <v>138.4026587993106</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.54084609856618</v>
+        <v>19.35410982928531</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.394519405696936</v>
+        <v>13.05422703915532</v>
       </c>
       <c r="D15">
-        <v>4.430385904471685</v>
+        <v>5.740530435857456</v>
       </c>
       <c r="E15">
-        <v>14.73973963448623</v>
+        <v>29.07308575332848</v>
       </c>
       <c r="F15">
-        <v>19.95307894144949</v>
+        <v>24.59133559967098</v>
       </c>
       <c r="G15">
-        <v>21.43041546395303</v>
+        <v>35.87471882249608</v>
       </c>
       <c r="H15">
-        <v>12.16593096036978</v>
+        <v>8.635565062483787</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.73547993382674</v>
+        <v>20.55318803251471</v>
       </c>
       <c r="M15">
-        <v>73.03997306636009</v>
+        <v>137.1637334331866</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.56823111959415</v>
+        <v>19.05033955793396</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.532176022028484</v>
+        <v>11.62805317236407</v>
       </c>
       <c r="D16">
-        <v>4.409354621593488</v>
+        <v>5.458805447759</v>
       </c>
       <c r="E16">
-        <v>14.56719734291303</v>
+        <v>27.10419231738349</v>
       </c>
       <c r="F16">
-        <v>20.0692854326204</v>
+        <v>22.72454835754506</v>
       </c>
       <c r="G16">
-        <v>21.61042892143024</v>
+        <v>32.75489075451112</v>
       </c>
       <c r="H16">
-        <v>12.25881723419829</v>
+        <v>7.870718258785736</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.60188316248972</v>
+        <v>19.36225718804661</v>
       </c>
       <c r="M16">
-        <v>70.92047767776496</v>
+        <v>130.4289787024472</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.72881056556203</v>
+        <v>17.43089140973277</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.618824239864386</v>
+        <v>10.84320466574584</v>
       </c>
       <c r="D17">
-        <v>4.396550645699298</v>
+        <v>5.296274998027519</v>
       </c>
       <c r="E17">
-        <v>14.46289602987281</v>
+        <v>26.0019970811299</v>
       </c>
       <c r="F17">
-        <v>20.1451379080697</v>
+        <v>21.66902486369328</v>
       </c>
       <c r="G17">
-        <v>21.7294502739184</v>
+        <v>31.00191887019499</v>
       </c>
       <c r="H17">
-        <v>12.31714641667121</v>
+        <v>7.44268488506008</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.52022118598437</v>
+        <v>18.68679523978325</v>
       </c>
       <c r="M17">
-        <v>69.58705286841742</v>
+        <v>126.5233473308298</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.83052630843142</v>
+        <v>16.51804461232058</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.669454069882537</v>
+        <v>10.41652378069667</v>
       </c>
       <c r="D18">
-        <v>4.389223676799022</v>
+        <v>5.205319852282388</v>
       </c>
       <c r="E18">
-        <v>14.40348948582163</v>
+        <v>25.39578529665496</v>
       </c>
       <c r="F18">
-        <v>20.1904113909495</v>
+        <v>21.08646462300052</v>
       </c>
       <c r="G18">
-        <v>21.80097589710149</v>
+        <v>30.03791450192079</v>
       </c>
       <c r="H18">
-        <v>12.35118719426417</v>
+        <v>7.207947723913547</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.47337410086074</v>
+        <v>18.31239840882142</v>
       </c>
       <c r="M18">
-        <v>68.80789646954781</v>
+        <v>124.3322907152536</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.89018967161606</v>
+        <v>16.01495088213039</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.686731003063231</v>
+        <v>10.27573843261257</v>
       </c>
       <c r="D19">
-        <v>4.386749482389635</v>
+        <v>5.174872340549552</v>
       </c>
       <c r="E19">
-        <v>14.3834774069147</v>
+        <v>25.19453736665094</v>
       </c>
       <c r="F19">
-        <v>20.20601976754383</v>
+        <v>20.89285989407106</v>
       </c>
       <c r="G19">
-        <v>21.82571180430884</v>
+        <v>29.71810357879358</v>
       </c>
       <c r="H19">
-        <v>12.36279689340284</v>
+        <v>7.130187274283519</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.45753492966345</v>
+        <v>18.18763663928977</v>
       </c>
       <c r="M19">
-        <v>68.54199038493026</v>
+        <v>123.5980494862852</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.91058800755552</v>
+        <v>15.84785576353845</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.609518053183765</v>
+        <v>10.92404656232024</v>
       </c>
       <c r="D20">
-        <v>4.397909799796875</v>
+        <v>5.313293008946548</v>
       </c>
       <c r="E20">
-        <v>14.47393891715011</v>
+        <v>26.11626205676057</v>
       </c>
       <c r="F20">
-        <v>20.13689230085498</v>
+        <v>21.77869890482335</v>
       </c>
       <c r="G20">
-        <v>21.71646076983648</v>
+        <v>31.18368453065037</v>
       </c>
       <c r="H20">
-        <v>12.31088624421602</v>
+        <v>7.486999932516322</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.52890186541741</v>
+        <v>18.75713111164322</v>
       </c>
       <c r="M20">
-        <v>69.73026125878597</v>
+        <v>126.9328939869267</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.81957810896908</v>
+        <v>16.61281204960967</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.359673631782698</v>
+        <v>13.46023058414942</v>
       </c>
       <c r="D21">
-        <v>4.435844850011139</v>
+        <v>5.817944329305534</v>
       </c>
       <c r="E21">
-        <v>14.78475212743938</v>
+        <v>29.62722298667421</v>
       </c>
       <c r="F21">
-        <v>19.92451387335156</v>
+        <v>25.11098896489878</v>
       </c>
       <c r="G21">
-        <v>21.38666801717476</v>
+        <v>36.74760941437079</v>
       </c>
       <c r="H21">
-        <v>12.1423687222238</v>
+        <v>8.85013496024777</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.7700519359228</v>
+        <v>20.88500976628359</v>
       </c>
       <c r="M21">
-        <v>73.57693758674036</v>
+        <v>139.0051811264131</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.52777945115291</v>
+        <v>19.50246536645556</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.203807678618242</v>
+        <v>15.61979673547598</v>
       </c>
       <c r="D22">
-        <v>4.460939910398037</v>
+        <v>6.212628963734234</v>
       </c>
       <c r="E22">
-        <v>14.99275448598344</v>
+        <v>32.54103259719613</v>
       </c>
       <c r="F22">
-        <v>19.80104645619437</v>
+        <v>27.78887540255063</v>
       </c>
       <c r="G22">
-        <v>21.20034943867814</v>
+        <v>41.27728865697043</v>
       </c>
       <c r="H22">
-        <v>12.03668376305938</v>
+        <v>9.966686325394072</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.92845391600188</v>
+        <v>22.60821843320621</v>
       </c>
       <c r="M22">
-        <v>75.98256051342474</v>
+        <v>148.3179578154349</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.34780474210815</v>
+        <v>21.84340224795141</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.28629789745942</v>
+        <v>14.3948461897016</v>
       </c>
       <c r="D23">
-        <v>4.447520077266306</v>
+        <v>5.992066036686661</v>
       </c>
       <c r="E23">
-        <v>14.88131068040712</v>
+        <v>30.89441454512675</v>
       </c>
       <c r="F23">
-        <v>19.86550668573786</v>
+        <v>26.28767922348706</v>
       </c>
       <c r="G23">
-        <v>21.2970240537099</v>
+        <v>38.73140233284365</v>
       </c>
       <c r="H23">
-        <v>12.09267872097469</v>
+        <v>9.338550747697024</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.84385282307847</v>
+        <v>21.63869973266205</v>
       </c>
       <c r="M23">
-        <v>74.7085349918659</v>
+        <v>143.1302604636158</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.44285787275052</v>
+        <v>20.52868677332474</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.61372284673692</v>
+        <v>10.88742336803581</v>
       </c>
       <c r="D24">
-        <v>4.397295219324128</v>
+        <v>5.30559170333941</v>
       </c>
       <c r="E24">
-        <v>14.46894468701533</v>
+        <v>26.06451981522288</v>
       </c>
       <c r="F24">
-        <v>20.14061496166634</v>
+        <v>21.7290415374259</v>
       </c>
       <c r="G24">
-        <v>21.7223236939141</v>
+        <v>31.10137515871007</v>
       </c>
       <c r="H24">
-        <v>12.3137148911941</v>
+        <v>7.46693058155732</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.52497701083075</v>
+        <v>18.7252902286921</v>
       </c>
       <c r="M24">
-        <v>69.66555584703099</v>
+        <v>126.7475748396253</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.82452410142037</v>
+        <v>16.56990176927755</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.997030542525803</v>
+        <v>8.084398659694902</v>
       </c>
       <c r="D25">
-        <v>4.344573972859826</v>
+        <v>4.666628682923381</v>
       </c>
       <c r="E25">
-        <v>14.04669488391836</v>
+        <v>21.95688130565812</v>
       </c>
       <c r="F25">
-        <v>20.49987887521158</v>
+        <v>17.78232981335513</v>
       </c>
       <c r="G25">
-        <v>22.29731586684986</v>
+        <v>24.62150916235252</v>
       </c>
       <c r="H25">
-        <v>12.57088828868422</v>
+        <v>5.901117624026227</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.18590306111382</v>
+        <v>16.14552526794586</v>
       </c>
       <c r="M25">
-        <v>63.75929927669386</v>
+        <v>111.2966957034658</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.28032617716875</v>
+        <v>13.16789744023483</v>
       </c>
     </row>
   </sheetData>
